--- a/quotes/EV712A-precursor-t3c-i1a-Enamine reactants quote.xlsx
+++ b/quotes/EV712A-precursor-t3c-i1a-Enamine reactants quote.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000_Zero_VAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/2A_Precursor_FFF/quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C7738-8F7E-453F-9B3F-883F85D8B4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247E446-792C-1B40-963E-D3EB8177F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{25AD86CF-2A4F-4D86-BFC7-6783352CAF08}"/>
+    <workbookView xWindow="16420" yWindow="29300" windowWidth="35840" windowHeight="21900" xr2:uid="{25AD86CF-2A4F-4D86-BFC7-6783352CAF08}"/>
   </bookViews>
   <sheets>
     <sheet name="EV712A-precursor-t3c-i1a-Enamin" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="473">
   <si>
     <t>hippo_id</t>
   </si>
@@ -1446,6 +1447,12 @@
   </si>
   <si>
     <t>Cl.NCC1(O)C2C3CC4C5CC(C2C35)C41</t>
+  </si>
+  <si>
+    <t>catalogue_col</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -2335,22 +2342,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E19086-5698-423F-BD77-A40EBA134285}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,9 +2384,11 @@
       <c r="H1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3148</v>
       </c>
@@ -2402,8 +2413,11 @@
       <c r="H2">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -2428,8 +2442,11 @@
       <c r="H3">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3160</v>
       </c>
@@ -2454,8 +2471,11 @@
       <c r="H4">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3158</v>
       </c>
@@ -2480,8 +2500,11 @@
       <c r="H5">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3183</v>
       </c>
@@ -2506,8 +2529,11 @@
       <c r="H6">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3163</v>
       </c>
@@ -2532,8 +2558,11 @@
       <c r="H7">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3188</v>
       </c>
@@ -2558,8 +2587,11 @@
       <c r="H8">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3180</v>
       </c>
@@ -2584,8 +2616,11 @@
       <c r="H9">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9440</v>
       </c>
@@ -2610,8 +2645,11 @@
       <c r="H10">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9441</v>
       </c>
@@ -2636,8 +2674,11 @@
       <c r="H11">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9444</v>
       </c>
@@ -2662,8 +2703,11 @@
       <c r="H12">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9436</v>
       </c>
@@ -2688,8 +2732,11 @@
       <c r="H13">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8728</v>
       </c>
@@ -2714,8 +2761,11 @@
       <c r="H14">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8820</v>
       </c>
@@ -2740,8 +2790,11 @@
       <c r="H15">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14007</v>
       </c>
@@ -2766,8 +2819,11 @@
       <c r="H16">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31588</v>
       </c>
@@ -2792,8 +2848,11 @@
       <c r="H17">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>31587</v>
       </c>
@@ -2818,8 +2877,11 @@
       <c r="H18">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>31586</v>
       </c>
@@ -2844,8 +2906,11 @@
       <c r="H19">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>31589</v>
       </c>
@@ -2870,8 +2935,11 @@
       <c r="H20">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>31594</v>
       </c>
@@ -2896,8 +2964,11 @@
       <c r="H21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>31593</v>
       </c>
@@ -2922,8 +2993,11 @@
       <c r="H22">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31590</v>
       </c>
@@ -2948,8 +3022,11 @@
       <c r="H23">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7486</v>
       </c>
@@ -2974,8 +3051,11 @@
       <c r="H24">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>31612</v>
       </c>
@@ -3000,8 +3080,11 @@
       <c r="H25">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31613</v>
       </c>
@@ -3026,8 +3109,11 @@
       <c r="H26">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>31622</v>
       </c>
@@ -3052,8 +3138,11 @@
       <c r="H27">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31597</v>
       </c>
@@ -3078,8 +3167,11 @@
       <c r="H28">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31623</v>
       </c>
@@ -3104,8 +3196,11 @@
       <c r="H29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31616</v>
       </c>
@@ -3130,8 +3225,11 @@
       <c r="H30">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31621</v>
       </c>
@@ -3156,8 +3254,11 @@
       <c r="H31">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31603</v>
       </c>
@@ -3182,8 +3283,11 @@
       <c r="H32">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31601</v>
       </c>
@@ -3208,8 +3312,11 @@
       <c r="H33">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31602</v>
       </c>
@@ -3234,8 +3341,11 @@
       <c r="H34">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31598</v>
       </c>
@@ -3260,8 +3370,11 @@
       <c r="H35">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>31599</v>
       </c>
@@ -3286,8 +3399,11 @@
       <c r="H36">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7440</v>
       </c>
@@ -3312,8 +3428,11 @@
       <c r="H37">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7444</v>
       </c>
@@ -3338,8 +3457,11 @@
       <c r="H38">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7445</v>
       </c>
@@ -3364,8 +3486,11 @@
       <c r="H39">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7451</v>
       </c>
@@ -3390,8 +3515,11 @@
       <c r="H40">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7460</v>
       </c>
@@ -3416,8 +3544,11 @@
       <c r="H41">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7474</v>
       </c>
@@ -3442,8 +3573,11 @@
       <c r="H42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7455</v>
       </c>
@@ -3468,8 +3602,11 @@
       <c r="H43">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7476</v>
       </c>
@@ -3494,8 +3631,11 @@
       <c r="H44">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7459</v>
       </c>
@@ -3520,8 +3660,11 @@
       <c r="H45">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7458</v>
       </c>
@@ -3546,8 +3689,11 @@
       <c r="H46">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7457</v>
       </c>
@@ -3572,8 +3718,11 @@
       <c r="H47">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7449</v>
       </c>
@@ -3598,8 +3747,11 @@
       <c r="H48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7491</v>
       </c>
@@ -3624,8 +3776,11 @@
       <c r="H49">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7480</v>
       </c>
@@ -3650,8 +3805,11 @@
       <c r="H50">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7497</v>
       </c>
@@ -3676,8 +3834,11 @@
       <c r="H51">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>33058</v>
       </c>
@@ -3702,8 +3863,11 @@
       <c r="H52">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7498</v>
       </c>
@@ -3728,8 +3892,11 @@
       <c r="H53">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7500</v>
       </c>
@@ -3754,8 +3921,11 @@
       <c r="H54">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7499</v>
       </c>
@@ -3780,8 +3950,11 @@
       <c r="H55">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7456</v>
       </c>
@@ -3806,8 +3979,11 @@
       <c r="H56">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12068</v>
       </c>
@@ -3832,8 +4008,11 @@
       <c r="H57">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6975</v>
       </c>
@@ -3858,8 +4037,11 @@
       <c r="H58">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>12095</v>
       </c>
@@ -3884,8 +4066,11 @@
       <c r="H59">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9823</v>
       </c>
@@ -3910,8 +4095,11 @@
       <c r="H60">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9427</v>
       </c>
@@ -3936,8 +4124,11 @@
       <c r="H61">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9801</v>
       </c>
@@ -3962,8 +4153,11 @@
       <c r="H62">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7501</v>
       </c>
@@ -3988,8 +4182,11 @@
       <c r="H63">
         <v>95</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9804</v>
       </c>
@@ -4014,8 +4211,11 @@
       <c r="H64">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8732</v>
       </c>
@@ -4040,8 +4240,11 @@
       <c r="H65">
         <v>95</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9433</v>
       </c>
@@ -4066,8 +4269,11 @@
       <c r="H66">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>9447</v>
       </c>
@@ -4092,8 +4298,11 @@
       <c r="H67">
         <v>95</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9445</v>
       </c>
@@ -4118,8 +4327,11 @@
       <c r="H68">
         <v>95</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9439</v>
       </c>
@@ -4144,8 +4356,11 @@
       <c r="H69">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9434</v>
       </c>
@@ -4170,8 +4385,11 @@
       <c r="H70">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9798</v>
       </c>
@@ -4196,8 +4414,11 @@
       <c r="H71">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1157</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="H72">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7512</v>
       </c>
@@ -4248,8 +4472,11 @@
       <c r="H73">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1184</v>
       </c>
@@ -4274,8 +4501,11 @@
       <c r="H74">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>9807</v>
       </c>
@@ -4300,8 +4530,11 @@
       <c r="H75">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9808</v>
       </c>
@@ -4326,8 +4559,11 @@
       <c r="H76">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1160</v>
       </c>
@@ -4352,8 +4588,11 @@
       <c r="H77">
         <v>95</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9810</v>
       </c>
@@ -4378,8 +4617,11 @@
       <c r="H78">
         <v>95</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1168</v>
       </c>
@@ -4404,8 +4646,11 @@
       <c r="H79">
         <v>95</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9817</v>
       </c>
@@ -4430,8 +4675,11 @@
       <c r="H80">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9822</v>
       </c>
@@ -4456,8 +4704,11 @@
       <c r="H81">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9794</v>
       </c>
@@ -4482,8 +4733,11 @@
       <c r="H82">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9793</v>
       </c>
@@ -4508,8 +4762,11 @@
       <c r="H83">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9796</v>
       </c>
@@ -4534,8 +4791,11 @@
       <c r="H84">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12070</v>
       </c>
@@ -4560,8 +4820,11 @@
       <c r="H85">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>13953</v>
       </c>
@@ -4586,8 +4849,11 @@
       <c r="H86">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13986</v>
       </c>
@@ -4612,8 +4878,11 @@
       <c r="H87">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>14000</v>
       </c>
@@ -4638,8 +4907,11 @@
       <c r="H88">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6872</v>
       </c>
@@ -4664,8 +4936,11 @@
       <c r="H89">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6864</v>
       </c>
@@ -4690,8 +4965,11 @@
       <c r="H90">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6897</v>
       </c>
@@ -4716,8 +4994,11 @@
       <c r="H91">
         <v>95</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6873</v>
       </c>
@@ -4742,8 +5023,11 @@
       <c r="H92">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6871</v>
       </c>
@@ -4768,8 +5052,11 @@
       <c r="H93">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6898</v>
       </c>
@@ -4794,8 +5081,11 @@
       <c r="H94">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6856</v>
       </c>
@@ -4820,8 +5110,11 @@
       <c r="H95">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>6904</v>
       </c>
@@ -4846,8 +5139,11 @@
       <c r="H96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9248</v>
       </c>
@@ -4872,8 +5168,11 @@
       <c r="H97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1189</v>
       </c>
@@ -4898,8 +5197,11 @@
       <c r="H98">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6883</v>
       </c>
@@ -4924,8 +5226,11 @@
       <c r="H99">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>16581</v>
       </c>
@@ -4950,8 +5255,11 @@
       <c r="H100">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6895</v>
       </c>
@@ -4976,8 +5284,11 @@
       <c r="H101">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6877</v>
       </c>
@@ -5002,8 +5313,11 @@
       <c r="H102">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6886</v>
       </c>
@@ -5028,8 +5342,11 @@
       <c r="H103">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>18547</v>
       </c>
@@ -5054,8 +5371,11 @@
       <c r="H104">
         <v>95</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>22269</v>
       </c>
@@ -5080,8 +5400,11 @@
       <c r="H105">
         <v>91</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>22287</v>
       </c>
@@ -5106,8 +5429,11 @@
       <c r="H106">
         <v>95</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6909</v>
       </c>
@@ -5132,8 +5458,11 @@
       <c r="H107">
         <v>95</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6858</v>
       </c>
@@ -5158,8 +5487,11 @@
       <c r="H108">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9802</v>
       </c>
@@ -5184,8 +5516,11 @@
       <c r="H109">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9812</v>
       </c>
@@ -5210,8 +5545,11 @@
       <c r="H110">
         <v>95</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9792</v>
       </c>
@@ -5236,8 +5574,11 @@
       <c r="H111">
         <v>95</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12074</v>
       </c>
@@ -5262,8 +5603,11 @@
       <c r="H112">
         <v>95</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12165</v>
       </c>
@@ -5288,8 +5632,11 @@
       <c r="H113">
         <v>95</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>12214</v>
       </c>
@@ -5314,8 +5661,11 @@
       <c r="H114">
         <v>95</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>12080</v>
       </c>
@@ -5340,8 +5690,11 @@
       <c r="H115">
         <v>95</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>12086</v>
       </c>
@@ -5366,8 +5719,11 @@
       <c r="H116">
         <v>95</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6863</v>
       </c>
@@ -5392,8 +5748,11 @@
       <c r="H117">
         <v>95</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>12163</v>
       </c>
@@ -5418,8 +5777,11 @@
       <c r="H118">
         <v>95</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>22144</v>
       </c>
@@ -5444,8 +5806,11 @@
       <c r="H119">
         <v>95</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>22155</v>
       </c>
@@ -5470,8 +5835,11 @@
       <c r="H120">
         <v>95</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>22159</v>
       </c>
@@ -5496,8 +5864,11 @@
       <c r="H121">
         <v>95</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>22230</v>
       </c>
@@ -5522,8 +5893,11 @@
       <c r="H122">
         <v>95</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12159</v>
       </c>
@@ -5548,8 +5922,11 @@
       <c r="H123">
         <v>95</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6854</v>
       </c>
@@ -5574,8 +5951,11 @@
       <c r="H124">
         <v>95</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6852</v>
       </c>
@@ -5600,8 +5980,11 @@
       <c r="H125">
         <v>95</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>22240</v>
       </c>
@@ -5626,8 +6009,11 @@
       <c r="H126">
         <v>95</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>22243</v>
       </c>
@@ -5652,8 +6038,11 @@
       <c r="H127">
         <v>95</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>22251</v>
       </c>
@@ -5678,8 +6067,11 @@
       <c r="H128">
         <v>95</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>22259</v>
       </c>
@@ -5704,8 +6096,11 @@
       <c r="H129">
         <v>95</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>22130</v>
       </c>
@@ -5730,8 +6125,11 @@
       <c r="H130">
         <v>95</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8776</v>
       </c>
@@ -5756,8 +6154,11 @@
       <c r="H131">
         <v>95</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8784</v>
       </c>
@@ -5782,8 +6183,11 @@
       <c r="H132">
         <v>95</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>22131</v>
       </c>
@@ -5808,8 +6212,11 @@
       <c r="H133">
         <v>95</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>22153</v>
       </c>
@@ -5834,8 +6241,11 @@
       <c r="H134">
         <v>95</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3216</v>
       </c>
@@ -5860,8 +6270,11 @@
       <c r="H135">
         <v>95</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9781</v>
       </c>
@@ -5886,8 +6299,11 @@
       <c r="H136">
         <v>95</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8761</v>
       </c>
@@ -5912,8 +6328,11 @@
       <c r="H137">
         <v>95</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9785</v>
       </c>
@@ -5938,8 +6357,11 @@
       <c r="H138">
         <v>95</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7489</v>
       </c>
@@ -5964,8 +6386,11 @@
       <c r="H139">
         <v>95</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1108</v>
       </c>
@@ -5990,8 +6415,11 @@
       <c r="H140">
         <v>95</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>9789</v>
       </c>
@@ -6016,8 +6444,11 @@
       <c r="H141">
         <v>95</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3165</v>
       </c>
@@ -6042,8 +6473,11 @@
       <c r="H142">
         <v>95</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>9790</v>
       </c>
@@ -6068,8 +6502,11 @@
       <c r="H143">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>9791</v>
       </c>
@@ -6094,8 +6531,11 @@
       <c r="H144">
         <v>95</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>9783</v>
       </c>
@@ -6120,8 +6560,11 @@
       <c r="H145">
         <v>95</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3187</v>
       </c>
@@ -6146,8 +6589,11 @@
       <c r="H146">
         <v>95</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3179</v>
       </c>
@@ -6172,8 +6618,11 @@
       <c r="H147">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3172</v>
       </c>
@@ -6198,8 +6647,11 @@
       <c r="H148">
         <v>95</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1115</v>
       </c>
@@ -6224,8 +6676,11 @@
       <c r="H149">
         <v>95</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3185</v>
       </c>
@@ -6250,8 +6705,11 @@
       <c r="H150">
         <v>95</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3175</v>
       </c>
@@ -6276,8 +6734,11 @@
       <c r="H151">
         <v>95</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7466</v>
       </c>
@@ -6302,8 +6763,11 @@
       <c r="H152">
         <v>95</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3134</v>
       </c>
@@ -6328,8 +6792,11 @@
       <c r="H153">
         <v>95</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3199</v>
       </c>
@@ -6354,8 +6821,11 @@
       <c r="H154">
         <v>95</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3150</v>
       </c>
@@ -6380,8 +6850,11 @@
       <c r="H155">
         <v>95</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3136</v>
       </c>
@@ -6406,8 +6879,11 @@
       <c r="H156">
         <v>95</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>18481</v>
       </c>
@@ -6432,8 +6908,11 @@
       <c r="H157">
         <v>95</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>16598</v>
       </c>
@@ -6458,8 +6937,11 @@
       <c r="H158">
         <v>95</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>18503</v>
       </c>
@@ -6484,8 +6966,11 @@
       <c r="H159">
         <v>95</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9709</v>
       </c>
@@ -6510,8 +6995,11 @@
       <c r="H160">
         <v>95</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9691</v>
       </c>
@@ -6536,8 +7024,11 @@
       <c r="H161">
         <v>95</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9702</v>
       </c>
@@ -6562,8 +7053,11 @@
       <c r="H162">
         <v>95</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9707</v>
       </c>
@@ -6588,8 +7082,11 @@
       <c r="H163">
         <v>95</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>9767</v>
       </c>
@@ -6614,8 +7111,11 @@
       <c r="H164">
         <v>95</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>13945</v>
       </c>
@@ -6640,8 +7140,11 @@
       <c r="H165">
         <v>95</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>9755</v>
       </c>
@@ -6666,8 +7169,11 @@
       <c r="H166">
         <v>85</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>9760</v>
       </c>
@@ -6692,8 +7198,11 @@
       <c r="H167">
         <v>95</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9684</v>
       </c>
@@ -6718,8 +7227,11 @@
       <c r="H168">
         <v>95</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>9688</v>
       </c>
@@ -6744,8 +7256,11 @@
       <c r="H169">
         <v>95</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>9710</v>
       </c>
@@ -6770,8 +7285,11 @@
       <c r="H170">
         <v>95</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3043</v>
       </c>
@@ -6795,6 +7313,9 @@
       </c>
       <c r="H171">
         <v>95</v>
+      </c>
+      <c r="I171" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6803,4 +7324,2062 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFF7C76-66BD-5243-8899-5CBB4BA0F3EF}">
+  <dimension ref="A1:C170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6863</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <f>VLOOKUP(A1,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>18481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13945</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>13945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9688</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9684</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9709</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9710</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(A9,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>22130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(A10,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8761</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12068</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3043</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(A17,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(A19,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(A20,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(A21,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(A22,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(A25,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(A27,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6854</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(A28,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6909</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(A29,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6852</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(A30,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(A31,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9691</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(A32,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9702</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9801</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(A34,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9707</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(A35,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6858</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(A36,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(A37,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6975</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9804</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(A39,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9440</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(A40,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8732</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(A41,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9441</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(A42,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9433</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(A43,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9447</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(A44,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9445</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(A45,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9444</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(A46,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9439</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(A47,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9436</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(A48,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8776</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(A49,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8784</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(A50,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8728</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(A51,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8820</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(A52,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9434</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(A53,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(A54,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9785</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(A55,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7489</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3150</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(A58,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9789</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(A59,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(A60,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9790</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP(A61,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9791</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(A62,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9781</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(A63,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9783</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(A64,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7466</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(A65,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP(A66,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(A67,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3172</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(A68,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A69,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9755</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A70,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9760</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(A71,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9767</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(A72,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9767</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9798</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(A73,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9802</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(A74,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1157</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(A75,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>7512</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(A76,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP(A77,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9807</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP(A78,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9808</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79">
+        <f>VLOOKUP(A79,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80">
+        <f>VLOOKUP(A80,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9810</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(A81,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>9812</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP(A82,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(A83,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9817</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(A84,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>9822</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(A85,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9794</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(A86,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9793</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP(A87,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>9796</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP(A88,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>9792</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89">
+        <f>VLOOKUP(A89,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>12163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90">
+        <f>VLOOKUP(A90,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>12070</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91">
+        <f>VLOOKUP(A91,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>12074</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP(A92,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>12165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93">
+        <f>VLOOKUP(A93,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>12214</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94">
+        <f>VLOOKUP(A94,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>12080</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP(A95,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>12086</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96">
+        <f>VLOOKUP(A96,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>12095</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97">
+        <f>VLOOKUP(A97,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>13953</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <f>VLOOKUP(A98,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>13986</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <f>VLOOKUP(A99,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>13986</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>14007</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP(A100,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>14007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>14000</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP(A101,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>9823</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102">
+        <f>VLOOKUP(A102,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6872</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103">
+        <f>VLOOKUP(A103,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6864</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104">
+        <f>VLOOKUP(A104,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6897</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105">
+        <f>VLOOKUP(A105,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6873</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106">
+        <f>VLOOKUP(A106,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>6871</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107">
+        <f>VLOOKUP(A107,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>6898</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108">
+        <f>VLOOKUP(A108,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6856</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109">
+        <f>VLOOKUP(A109,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6904</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110">
+        <f>VLOOKUP(A110,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>9248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111">
+        <f>VLOOKUP(A111,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1189</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112">
+        <f>VLOOKUP(A112,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>6883</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113">
+        <f>VLOOKUP(A113,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>16581</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114">
+        <f>VLOOKUP(A114,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>16581</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>6895</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115">
+        <f>VLOOKUP(A115,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>6877</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116">
+        <f>VLOOKUP(A116,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>6886</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117">
+        <f>VLOOKUP(A117,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>18503</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118">
+        <f>VLOOKUP(A118,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>18503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>18547</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119">
+        <f>VLOOKUP(A119,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>18547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>22131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120">
+        <f>VLOOKUP(A120,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>22240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121">
+        <f>VLOOKUP(A121,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>22243</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122">
+        <f>VLOOKUP(A122,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>22251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123">
+        <f>VLOOKUP(A123,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>22259</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124">
+        <f>VLOOKUP(A124,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>22144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125">
+        <f>VLOOKUP(A125,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>22153</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126">
+        <f>VLOOKUP(A126,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>22155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127">
+        <f>VLOOKUP(A127,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>22159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128">
+        <f>VLOOKUP(A128,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>22269</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129">
+        <f>VLOOKUP(A129,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>22287</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130">
+        <f>VLOOKUP(A130,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>22287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>31588</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131">
+        <f>VLOOKUP(A131,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31588</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>31587</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132">
+        <f>VLOOKUP(A132,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31587</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>31586</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133">
+        <f>VLOOKUP(A133,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>31589</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134">
+        <f>VLOOKUP(A134,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>31594</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135">
+        <f>VLOOKUP(A135,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31594</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>31593</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136">
+        <f>VLOOKUP(A136,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31593</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>31590</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137">
+        <f>VLOOKUP(A137,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>7486</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138">
+        <f>VLOOKUP(A138,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7486</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>31612</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139">
+        <f>VLOOKUP(A139,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31612</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>31613</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140">
+        <f>VLOOKUP(A140,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31613</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>31622</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141">
+        <f>VLOOKUP(A141,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31622</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>31597</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142">
+        <f>VLOOKUP(A142,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31597</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>31623</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143">
+        <f>VLOOKUP(A143,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>31616</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144">
+        <f>VLOOKUP(A144,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>31621</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145">
+        <f>VLOOKUP(A145,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>31603</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146">
+        <f>VLOOKUP(A146,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>31601</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147">
+        <f>VLOOKUP(A147,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31601</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>31602</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148">
+        <f>VLOOKUP(A148,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>31598</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149">
+        <f>VLOOKUP(A149,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31598</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>31599</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150">
+        <f>VLOOKUP(A150,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>31599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>7440</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151">
+        <f>VLOOKUP(A151,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>7444</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152">
+        <f>VLOOKUP(A152,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>7445</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153">
+        <f>VLOOKUP(A153,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>7451</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154">
+        <f>VLOOKUP(A154,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>7460</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155">
+        <f>VLOOKUP(A155,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>7474</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156">
+        <f>VLOOKUP(A156,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>7455</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157">
+        <f>VLOOKUP(A157,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>7476</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158">
+        <f>VLOOKUP(A158,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>7459</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159">
+        <f>VLOOKUP(A159,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>7458</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160">
+        <f>VLOOKUP(A160,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7458</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>7457</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161">
+        <f>VLOOKUP(A161,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>7449</v>
+      </c>
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162">
+        <f>VLOOKUP(A162,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>7491</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163">
+        <f>VLOOKUP(A163,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>7480</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164">
+        <f>VLOOKUP(A164,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>7497</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165">
+        <f>VLOOKUP(A165,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>33058</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166">
+        <f>VLOOKUP(A166,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>33058</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>7498</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167">
+        <f>VLOOKUP(A167,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>7500</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168">
+        <f>VLOOKUP(A168,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>7499</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169">
+        <f>VLOOKUP(A169,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>7456</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170">
+        <f>VLOOKUP(A170,'EV712A-precursor-t3c-i1a-Enamin'!$A$2:$A$171,1,FALSE)</f>
+        <v>7456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/quotes/EV712A-precursor-t3c-i1a-Enamine reactants quote.xlsx
+++ b/quotes/EV712A-precursor-t3c-i1a-Enamine reactants quote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/2A_Precursor_FFF/quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247E446-792C-1B40-963E-D3EB8177F1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233D5DF-3F76-DC4E-B757-050B5A60FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16420" yWindow="29300" windowWidth="35840" windowHeight="21900" xr2:uid="{25AD86CF-2A4F-4D86-BFC7-6783352CAF08}"/>
   </bookViews>
@@ -1074,9 +1074,6 @@
     <t>available_smiles</t>
   </si>
   <si>
-    <t>price_eur</t>
-  </si>
-  <si>
     <t>purity_%</t>
   </si>
   <si>
@@ -1453,6 +1450,9 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>price, EUR</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2379,13 +2379,13 @@
         <v>345</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -2414,7 +2414,7 @@
         <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
         <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -2472,7 +2472,7 @@
         <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -2501,7 +2501,7 @@
         <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2521,7 +2521,7 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -2530,7 +2530,7 @@
         <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -2559,7 +2559,7 @@
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,7 +2588,7 @@
         <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -2646,7 +2646,7 @@
         <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11">
         <v>45</v>
@@ -2675,7 +2675,7 @@
         <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2695,7 +2695,7 @@
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G12">
         <v>58</v>
@@ -2704,7 +2704,7 @@
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -2733,7 +2733,7 @@
         <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2753,7 +2753,7 @@
         <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -2762,7 +2762,7 @@
         <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2811,7 +2811,7 @@
         <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G16">
         <v>24</v>
@@ -2820,7 +2820,7 @@
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2840,7 +2840,7 @@
         <v>265</v>
       </c>
       <c r="F17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G17">
         <v>37</v>
@@ -2849,7 +2849,7 @@
         <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +2869,7 @@
         <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G18">
         <v>83</v>
@@ -2878,7 +2878,7 @@
         <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2895,10 +2895,10 @@
         <v>269</v>
       </c>
       <c r="E19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" t="s">
         <v>389</v>
-      </c>
-      <c r="F19" t="s">
-        <v>390</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -2907,7 +2907,7 @@
         <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2924,10 +2924,10 @@
         <v>271</v>
       </c>
       <c r="E20" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" t="s">
         <v>384</v>
-      </c>
-      <c r="F20" t="s">
-        <v>385</v>
       </c>
       <c r="G20">
         <v>14</v>
@@ -2936,7 +2936,7 @@
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2953,10 +2953,10 @@
         <v>273</v>
       </c>
       <c r="E21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" t="s">
         <v>379</v>
-      </c>
-      <c r="F21" t="s">
-        <v>380</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2965,7 +2965,7 @@
         <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2985,7 +2985,7 @@
         <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2994,7 +2994,7 @@
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3011,10 +3011,10 @@
         <v>277</v>
       </c>
       <c r="E23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" t="s">
         <v>382</v>
-      </c>
-      <c r="F23" t="s">
-        <v>383</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -3023,7 +3023,7 @@
         <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3043,7 +3043,7 @@
         <v>279</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G24">
         <v>90</v>
@@ -3052,7 +3052,7 @@
         <v>95</v>
       </c>
       <c r="I24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>281</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -3081,7 +3081,7 @@
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>283</v>
       </c>
       <c r="F26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G26">
         <v>90</v>
@@ -3110,7 +3110,7 @@
         <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G27">
         <v>14</v>
@@ -3139,7 +3139,7 @@
         <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
         <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3197,7 +3197,7 @@
         <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3226,7 +3226,7 @@
         <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="I31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3304,7 +3304,7 @@
         <v>297</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3313,7 +3313,7 @@
         <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
         <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="I35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>303</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F36" t="s">
         <v>302</v>
@@ -3400,7 +3400,7 @@
         <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3449,7 +3449,7 @@
         <v>307</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G38">
         <v>14</v>
@@ -3458,7 +3458,7 @@
         <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G39">
         <v>14</v>
@@ -3487,7 +3487,7 @@
         <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
         <v>95</v>
       </c>
       <c r="I40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3536,7 +3536,7 @@
         <v>313</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G41">
         <v>14</v>
@@ -3545,7 +3545,7 @@
         <v>95</v>
       </c>
       <c r="I41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3565,7 +3565,7 @@
         <v>315</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -3574,7 +3574,7 @@
         <v>95</v>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3591,10 +3591,10 @@
         <v>317</v>
       </c>
       <c r="E43" t="s">
+        <v>353</v>
+      </c>
+      <c r="F43" t="s">
         <v>354</v>
-      </c>
-      <c r="F43" t="s">
-        <v>355</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -3603,7 +3603,7 @@
         <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G44">
         <v>64</v>
@@ -3632,7 +3632,7 @@
         <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>321</v>
       </c>
       <c r="F45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G45">
         <v>59</v>
@@ -3661,7 +3661,7 @@
         <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3690,7 +3690,7 @@
         <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3739,7 +3739,7 @@
         <v>327</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -3748,7 +3748,7 @@
         <v>95</v>
       </c>
       <c r="I48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3768,7 +3768,7 @@
         <v>329</v>
       </c>
       <c r="F49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G49">
         <v>84</v>
@@ -3777,7 +3777,7 @@
         <v>95</v>
       </c>
       <c r="I49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>95</v>
       </c>
       <c r="I50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
         <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3884,7 +3884,7 @@
         <v>337</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G53">
         <v>63</v>
@@ -3893,7 +3893,7 @@
         <v>95</v>
       </c>
       <c r="I53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3980,7 +3980,7 @@
         <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4000,7 +4000,7 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G57">
         <v>50</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4029,7 +4029,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G58">
         <v>19</v>
@@ -4038,7 +4038,7 @@
         <v>95</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>197</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G59">
         <v>25</v>
@@ -4067,7 +4067,7 @@
         <v>95</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4096,7 +4096,7 @@
         <v>95</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G61">
         <v>14</v>
@@ -4125,7 +4125,7 @@
         <v>95</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
         <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4232,7 +4232,7 @@
         <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G65">
         <v>19</v>
@@ -4241,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -4261,7 +4261,7 @@
         <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G66">
         <v>40</v>
@@ -4270,7 +4270,7 @@
         <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
         <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G67">
         <v>14</v>
@@ -4299,7 +4299,7 @@
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G68">
         <v>51</v>
@@ -4328,7 +4328,7 @@
         <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G69">
         <v>15</v>
@@ -4357,7 +4357,7 @@
         <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G70">
         <v>27</v>
@@ -4386,7 +4386,7 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4406,7 +4406,7 @@
         <v>149</v>
       </c>
       <c r="F71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G71">
         <v>84</v>
@@ -4415,7 +4415,7 @@
         <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
         <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4473,7 +4473,7 @@
         <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
         <v>95</v>
       </c>
       <c r="I74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4522,7 +4522,7 @@
         <v>159</v>
       </c>
       <c r="F75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G75">
         <v>110</v>
@@ -4531,7 +4531,7 @@
         <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G76">
         <v>67</v>
@@ -4560,7 +4560,7 @@
         <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4589,7 +4589,7 @@
         <v>95</v>
       </c>
       <c r="I77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4618,7 +4618,7 @@
         <v>95</v>
       </c>
       <c r="I78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4667,7 +4667,7 @@
         <v>171</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G80">
         <v>54</v>
@@ -4676,7 +4676,7 @@
         <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4696,7 +4696,7 @@
         <v>173</v>
       </c>
       <c r="F81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G81">
         <v>14</v>
@@ -4705,7 +4705,7 @@
         <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>175</v>
       </c>
       <c r="F82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G82">
         <v>14</v>
@@ -4734,7 +4734,7 @@
         <v>95</v>
       </c>
       <c r="I82" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="I83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4780,10 +4780,10 @@
         <v>179</v>
       </c>
       <c r="E84" t="s">
+        <v>403</v>
+      </c>
+      <c r="F84" t="s">
         <v>404</v>
-      </c>
-      <c r="F84" t="s">
-        <v>405</v>
       </c>
       <c r="G84">
         <v>15</v>
@@ -4792,7 +4792,7 @@
         <v>95</v>
       </c>
       <c r="I84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
         <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G85">
         <v>36</v>
@@ -4821,7 +4821,7 @@
         <v>95</v>
       </c>
       <c r="I85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>199</v>
       </c>
       <c r="F86" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G86">
         <v>15</v>
@@ -4850,7 +4850,7 @@
         <v>95</v>
       </c>
       <c r="I86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4870,7 +4870,7 @@
         <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G87">
         <v>14</v>
@@ -4879,7 +4879,7 @@
         <v>95</v>
       </c>
       <c r="I87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4899,7 +4899,7 @@
         <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G88">
         <v>69</v>
@@ -4908,7 +4908,7 @@
         <v>95</v>
       </c>
       <c r="I88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>95</v>
       </c>
       <c r="I89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4957,7 +4957,7 @@
         <v>211</v>
       </c>
       <c r="F90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G90">
         <v>14</v>
@@ -4966,7 +4966,7 @@
         <v>95</v>
       </c>
       <c r="I90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4995,7 +4995,7 @@
         <v>95</v>
       </c>
       <c r="I91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>95</v>
       </c>
       <c r="I92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>95</v>
       </c>
       <c r="I93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>95</v>
       </c>
       <c r="I94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>95</v>
       </c>
       <c r="I95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -5140,7 +5140,7 @@
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -5169,7 +5169,7 @@
         <v>95</v>
       </c>
       <c r="I97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -5198,7 +5198,7 @@
         <v>95</v>
       </c>
       <c r="I98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -5227,7 +5227,7 @@
         <v>95</v>
       </c>
       <c r="I99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -5256,7 +5256,7 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -5285,7 +5285,7 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5314,7 +5314,7 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5334,7 +5334,7 @@
         <v>237</v>
       </c>
       <c r="F103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G103">
         <v>14</v>
@@ -5343,7 +5343,7 @@
         <v>95</v>
       </c>
       <c r="I103" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -5363,7 +5363,7 @@
         <v>241</v>
       </c>
       <c r="F104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G104">
         <v>14</v>
@@ -5372,7 +5372,7 @@
         <v>95</v>
       </c>
       <c r="I104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -5392,7 +5392,7 @@
         <v>261</v>
       </c>
       <c r="F105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G105">
         <v>86</v>
@@ -5401,7 +5401,7 @@
         <v>91</v>
       </c>
       <c r="I105" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -5421,7 +5421,7 @@
         <v>263</v>
       </c>
       <c r="F106" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>95</v>
       </c>
       <c r="I106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5450,7 +5450,7 @@
         <v>61</v>
       </c>
       <c r="F107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G107">
         <v>15</v>
@@ -5459,7 +5459,7 @@
         <v>95</v>
       </c>
       <c r="I107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5488,7 +5488,7 @@
         <v>95</v>
       </c>
       <c r="I108" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5517,7 +5517,7 @@
         <v>95</v>
       </c>
       <c r="I109" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
         <v>95</v>
       </c>
       <c r="I110" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>181</v>
       </c>
       <c r="F111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G111">
         <v>36</v>
@@ -5575,7 +5575,7 @@
         <v>95</v>
       </c>
       <c r="I111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5595,7 +5595,7 @@
         <v>187</v>
       </c>
       <c r="F112" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G112">
         <v>24</v>
@@ -5604,7 +5604,7 @@
         <v>95</v>
       </c>
       <c r="I112" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -5624,7 +5624,7 @@
         <v>189</v>
       </c>
       <c r="F113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G113">
         <v>70</v>
@@ -5633,7 +5633,7 @@
         <v>95</v>
       </c>
       <c r="I113" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5653,7 +5653,7 @@
         <v>191</v>
       </c>
       <c r="F114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G114">
         <v>58</v>
@@ -5662,7 +5662,7 @@
         <v>95</v>
       </c>
       <c r="I114" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5682,7 +5682,7 @@
         <v>193</v>
       </c>
       <c r="F115" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G115">
         <v>50</v>
@@ -5691,7 +5691,7 @@
         <v>95</v>
       </c>
       <c r="I115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>195</v>
       </c>
       <c r="F116" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>95</v>
       </c>
       <c r="I116" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -5749,7 +5749,7 @@
         <v>95</v>
       </c>
       <c r="I117" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5769,7 +5769,7 @@
         <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G118">
         <v>78</v>
@@ -5778,7 +5778,7 @@
         <v>95</v>
       </c>
       <c r="I118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -5798,7 +5798,7 @@
         <v>253</v>
       </c>
       <c r="F119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G119">
         <v>64</v>
@@ -5807,7 +5807,7 @@
         <v>95</v>
       </c>
       <c r="I119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -5827,7 +5827,7 @@
         <v>257</v>
       </c>
       <c r="F120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G120">
         <v>32</v>
@@ -5836,7 +5836,7 @@
         <v>95</v>
       </c>
       <c r="I120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -5856,7 +5856,7 @@
         <v>259</v>
       </c>
       <c r="F121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G121">
         <v>14</v>
@@ -5865,7 +5865,7 @@
         <v>95</v>
       </c>
       <c r="I121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
         <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G122">
         <v>14</v>
@@ -5894,7 +5894,7 @@
         <v>95</v>
       </c>
       <c r="I122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -5914,7 +5914,7 @@
         <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -5923,7 +5923,7 @@
         <v>95</v>
       </c>
       <c r="I123" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>59</v>
       </c>
       <c r="F124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G124">
         <v>14</v>
@@ -5952,7 +5952,7 @@
         <v>95</v>
       </c>
       <c r="I124" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -5969,10 +5969,10 @@
         <v>63</v>
       </c>
       <c r="E125" t="s">
+        <v>464</v>
+      </c>
+      <c r="F125" t="s">
         <v>465</v>
-      </c>
-      <c r="F125" t="s">
-        <v>466</v>
       </c>
       <c r="G125">
         <v>230</v>
@@ -5981,7 +5981,7 @@
         <v>95</v>
       </c>
       <c r="I125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6001,7 +6001,7 @@
         <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G126">
         <v>14</v>
@@ -6010,7 +6010,7 @@
         <v>95</v>
       </c>
       <c r="I126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G127">
         <v>123</v>
@@ -6039,7 +6039,7 @@
         <v>95</v>
       </c>
       <c r="I127" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6059,7 +6059,7 @@
         <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>95</v>
       </c>
       <c r="I128" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G129">
         <v>14</v>
@@ -6097,7 +6097,7 @@
         <v>95</v>
       </c>
       <c r="I129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6117,7 +6117,7 @@
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G130">
         <v>14</v>
@@ -6126,7 +6126,7 @@
         <v>95</v>
       </c>
       <c r="I130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6146,7 +6146,7 @@
         <v>101</v>
       </c>
       <c r="F131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G131">
         <v>118</v>
@@ -6155,7 +6155,7 @@
         <v>95</v>
       </c>
       <c r="I131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>103</v>
       </c>
       <c r="F132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G132">
         <v>83</v>
@@ -6184,7 +6184,7 @@
         <v>95</v>
       </c>
       <c r="I132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -6204,7 +6204,7 @@
         <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G133">
         <v>14</v>
@@ -6213,7 +6213,7 @@
         <v>95</v>
       </c>
       <c r="I133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
         <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G134">
         <v>15</v>
@@ -6242,7 +6242,7 @@
         <v>95</v>
       </c>
       <c r="I134" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>95</v>
       </c>
       <c r="I135" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6291,7 +6291,7 @@
         <v>129</v>
       </c>
       <c r="F136" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G136">
         <v>14</v>
@@ -6300,7 +6300,7 @@
         <v>95</v>
       </c>
       <c r="I136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -6320,7 +6320,7 @@
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G137">
         <v>111</v>
@@ -6329,7 +6329,7 @@
         <v>95</v>
       </c>
       <c r="I137" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
         <v>95</v>
       </c>
       <c r="I138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6378,7 +6378,7 @@
         <v>115</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G139">
         <v>14</v>
@@ -6387,7 +6387,7 @@
         <v>95</v>
       </c>
       <c r="I139" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6416,7 +6416,7 @@
         <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>121</v>
       </c>
       <c r="F141" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G141">
         <v>31</v>
@@ -6445,7 +6445,7 @@
         <v>95</v>
       </c>
       <c r="I141" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
         <v>123</v>
       </c>
       <c r="F142" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G142">
         <v>72</v>
@@ -6474,7 +6474,7 @@
         <v>95</v>
       </c>
       <c r="I142" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
         <v>125</v>
       </c>
       <c r="F143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G143">
         <v>14</v>
@@ -6503,7 +6503,7 @@
         <v>95</v>
       </c>
       <c r="I143" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6523,7 +6523,7 @@
         <v>127</v>
       </c>
       <c r="F144" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G144">
         <v>119</v>
@@ -6532,7 +6532,7 @@
         <v>95</v>
       </c>
       <c r="I144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>95</v>
       </c>
       <c r="I145" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -6590,7 +6590,7 @@
         <v>95</v>
       </c>
       <c r="I146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6619,7 +6619,7 @@
         <v>92</v>
       </c>
       <c r="I147" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6648,7 +6648,7 @@
         <v>95</v>
       </c>
       <c r="I148" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6668,7 +6668,7 @@
         <v>141</v>
       </c>
       <c r="F149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G149">
         <v>14</v>
@@ -6677,7 +6677,7 @@
         <v>95</v>
       </c>
       <c r="I149" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -6706,7 +6706,7 @@
         <v>95</v>
       </c>
       <c r="I150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>95</v>
       </c>
       <c r="I151" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -6752,10 +6752,10 @@
         <v>133</v>
       </c>
       <c r="E152" t="s">
+        <v>371</v>
+      </c>
+      <c r="F152" t="s">
         <v>372</v>
-      </c>
-      <c r="F152" t="s">
-        <v>373</v>
       </c>
       <c r="G152">
         <v>14</v>
@@ -6764,7 +6764,7 @@
         <v>95</v>
       </c>
       <c r="I152" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -6784,7 +6784,7 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G153">
         <v>14</v>
@@ -6793,7 +6793,7 @@
         <v>95</v>
       </c>
       <c r="I153" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -6810,10 +6810,10 @@
         <v>111</v>
       </c>
       <c r="E154" t="s">
+        <v>373</v>
+      </c>
+      <c r="F154" t="s">
         <v>374</v>
-      </c>
-      <c r="F154" t="s">
-        <v>375</v>
       </c>
       <c r="G154">
         <v>14</v>
@@ -6822,7 +6822,7 @@
         <v>95</v>
       </c>
       <c r="I154" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -6842,7 +6842,7 @@
         <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G155">
         <v>14</v>
@@ -6851,7 +6851,7 @@
         <v>95</v>
       </c>
       <c r="I155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G156">
         <v>128</v>
@@ -6880,7 +6880,7 @@
         <v>95</v>
       </c>
       <c r="I156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -6909,7 +6909,7 @@
         <v>95</v>
       </c>
       <c r="I157" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -6929,7 +6929,7 @@
         <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G158">
         <v>95</v>
@@ -6938,7 +6938,7 @@
         <v>95</v>
       </c>
       <c r="I158" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -6958,7 +6958,7 @@
         <v>239</v>
       </c>
       <c r="F159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G159">
         <v>48</v>
@@ -6967,7 +6967,7 @@
         <v>95</v>
       </c>
       <c r="I159" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,7 +6987,7 @@
         <v>19</v>
       </c>
       <c r="F160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G160">
         <v>22</v>
@@ -6996,7 +6996,7 @@
         <v>95</v>
       </c>
       <c r="I160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
         <v>67</v>
       </c>
       <c r="F161" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G161">
         <v>123</v>
@@ -7025,7 +7025,7 @@
         <v>95</v>
       </c>
       <c r="I161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -7045,7 +7045,7 @@
         <v>69</v>
       </c>
       <c r="F162" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G162">
         <v>53</v>
@@ -7054,7 +7054,7 @@
         <v>95</v>
       </c>
       <c r="I162" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -7074,7 +7074,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G163">
         <v>143</v>
@@ -7083,7 +7083,7 @@
         <v>95</v>
       </c>
       <c r="I163" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>147</v>
       </c>
       <c r="F164" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G164">
         <v>14</v>
@@ -7112,7 +7112,7 @@
         <v>95</v>
       </c>
       <c r="I164" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G165">
         <v>15</v>
@@ -7141,7 +7141,7 @@
         <v>95</v>
       </c>
       <c r="I165" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>143</v>
       </c>
       <c r="F166" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G166">
         <v>32</v>
@@ -7170,7 +7170,7 @@
         <v>85</v>
       </c>
       <c r="I166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>145</v>
       </c>
       <c r="F167" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G167">
         <v>15</v>
@@ -7199,7 +7199,7 @@
         <v>95</v>
       </c>
       <c r="I167" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -7219,7 +7219,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G168">
         <v>14</v>
@@ -7228,7 +7228,7 @@
         <v>95</v>
       </c>
       <c r="I168" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -7248,7 +7248,7 @@
         <v>15</v>
       </c>
       <c r="F169" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G169">
         <v>162</v>
@@ -7257,7 +7257,7 @@
         <v>95</v>
       </c>
       <c r="I169" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -7277,7 +7277,7 @@
         <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G170">
         <v>18</v>
@@ -7286,7 +7286,7 @@
         <v>95</v>
       </c>
       <c r="I170" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -7306,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G171">
         <v>89</v>
@@ -7315,7 +7315,7 @@
         <v>95</v>
       </c>
       <c r="I171" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
